--- a/Lighting/Lumen Method Tabular.xlsx
+++ b/Lighting/Lumen Method Tabular.xlsx
@@ -543,9 +543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>56880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -559,7 +559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3289320" cy="5790240"/>
+          <a:ext cx="3292200" cy="5789880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,17 +582,17 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="4.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="18" style="1" width="5.36"/>
@@ -1022,8 +1022,8 @@
         <v>4</v>
       </c>
       <c r="X8" s="32" t="n">
-        <f aca="false">ROUND((W8*L8)/R8,0)</f>
-        <v>277</v>
+        <f aca="false">ROUND((W8*L8)/R8,-1)</f>
+        <v>280</v>
       </c>
       <c r="Y8" s="33" t="n">
         <f aca="false">P8*W8/(G8*H8)</f>
@@ -1145,8 +1145,8 @@
         <v>4</v>
       </c>
       <c r="X9" s="32" t="n">
-        <f aca="false">ROUND((W9*L9)/R9,0)</f>
-        <v>541</v>
+        <f aca="false">ROUND((W9*L9)/R9,-1)</f>
+        <v>540</v>
       </c>
       <c r="Y9" s="33" t="n">
         <f aca="false">P9*W9/(G9*H9)</f>
@@ -1268,8 +1268,8 @@
         <v>5</v>
       </c>
       <c r="X10" s="32" t="n">
-        <f aca="false">ROUND((W10*L10)/R10,0)</f>
-        <v>139</v>
+        <f aca="false">ROUND((W10*L10)/R10,-1)</f>
+        <v>140</v>
       </c>
       <c r="Y10" s="33" t="n">
         <f aca="false">P10*W10/(G10*H10)</f>
@@ -1391,8 +1391,8 @@
         <v>7</v>
       </c>
       <c r="X11" s="32" t="n">
-        <f aca="false">ROUND((W11*L11)/R11,0)</f>
-        <v>204</v>
+        <f aca="false">ROUND((W11*L11)/R11,-1)</f>
+        <v>200</v>
       </c>
       <c r="Y11" s="33" t="n">
         <f aca="false">P11*W11/(G11*H11)</f>
@@ -1465,7 +1465,7 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
